--- a/3. Laporan/1. hasil penelitian dengan random state/hasil dengan random state.xlsx
+++ b/3. Laporan/1. hasil penelitian dengan random state/hasil dengan random state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\3. Laporan\1. hasil penelitian dengan random state\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CFB987-77C8-4010-AA55-AA16645EB072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4760B3-43EE-47C8-B52B-0E8F0FE9519F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Awal" sheetId="1" r:id="rId1"/>
@@ -598,16 +598,16 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
@@ -625,7 +625,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
     </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="27" t="s">
         <v>12</v>
@@ -641,7 +641,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="16" t="s">
         <v>5</v>
@@ -669,7 +669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
@@ -699,7 +699,7 @@
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
@@ -733,10 +733,10 @@
         <v>3.8508000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="27" t="s">
         <v>12</v>
@@ -770,7 +770,7 @@
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="16" t="s">
         <v>5</v>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>13</v>
       </c>
@@ -828,7 +828,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>14</v>
       </c>
@@ -860,16 +860,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -882,24 +882,24 @@
   </sheetPr>
   <dimension ref="A5:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1284,23 +1284,23 @@
   </sheetPr>
   <dimension ref="A5:T16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -1386,7 +1386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>0.46779999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>0.46779999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0.46779999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0.46779999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0.46779999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1688,7 +1688,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1710,7 +1710,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1732,7 +1732,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1754,7 +1754,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
